--- a/biology/Botanique/Parc_du_Montnegre_et_le_Corredor/Parc_du_Montnegre_et_le_Corredor.xlsx
+++ b/biology/Botanique/Parc_du_Montnegre_et_le_Corredor/Parc_du_Montnegre_et_le_Corredor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Parc du Montnegre et le Corredor est un espace naturel qui fait partie du Réseau d'Espaces Naturels (ca) protégés, promus et gérés par la Députation de Barcelone. Le Parc est protégé légalement par un plan spécial de protection du milieu géophysique et paysager, approuvé le 20 juillet 1989[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parc du Montnegre et le Corredor est un espace naturel qui fait partie du Réseau d'Espaces Naturels (ca) protégés, promus et gérés par la Députation de Barcelone. Le Parc est protégé légalement par un plan spécial de protection du milieu géophysique et paysager, approuvé le 20 juillet 1989.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Situé dans la cordillère littorale catalane entre les comarques du Maresme et du Vallès Oriental, il a une superficie approchant les 15 000 ha.
 La Méditerranée et la dépression vallesane le limitent longitudinalement , la rivière d'Argentona et le fleuve la Tordera (ca) le font transversalement.
@@ -559,7 +573,9 @@
           <t>Géographie physique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les massifs du Montnegre et le CorredorCorredor sont deux entités aux reliefs bien définis, alignés parallèlement à la côte, formant part de la cordillère littorale catalane et constituent une barrière naturelle entre la plaine littorale du Maresme et la dépression du Vallès et de La Selva.
 Le substrat géologique des deux ensembles montagneux est essentiellement formé par de grands blocs granitiques traversés par des filons. Dans la partie la plus élevée du Montnegre se trouve une zone de roches métamorphiques plus résistantes à l'érosion. Ces schistes donnent un caractère plus abrupt au massif du Montnegre. 
@@ -593,7 +609,9 @@
           <t>Végétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La situation géographique, le relief et les différents régimes climatiques entre les versants intérieurs et ceux face à la mer conditionnent la diversité de la végétation qui couvre ces massifs. La proximité de la mer, qui fournit un surplus d'humidité, spécialement l'été, favorise le développement d'une végétation exubérante de nombreuses espèces de caractère centre-européen et, même, atlantique.
 Les arbres les plus répandus sont les chênes verts et les chênes-lièges, ces derniers ayant été avantagés par l'intérêt économique associé à l'industrie du liège. Les pins parasols sont aussi très abondants, ils caractérisent le paysage du versants maritimes du Maresme où ils occupent  les vignes et cultures abandonnées au cours des derniers 150 ans.
@@ -627,7 +645,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété de couvertures végétales dans les massifs du Montnegre et du CorredorCorredor (chênaies,  feuillus, bords de rive, pinèdes, zones ouvertes et de culture) favorise le développement d'une faune diverse et abondante. 
 L'existence de forêts denses et bien conservées avantage la prospérité des espèces à caractère forestier. C'est le cas du sanglier, le mammifère le plus gros de ces massifs, parfaitement adapté à la vie dans les bois. 
@@ -665,7 +685,9 @@
           <t>Paysage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Montnegre et le CorredorCorredor forment un ensemble montagneux compact, avec des reliefs plutôt doux couverts de forets méditerranéennes et un paysage remodelé par l'activité humaine. 
 Les deux massifs sont, malgré tout, bien différents. Le Montnegre, plus grand et abrupt, est aussi plus sauvage et impénétrable. Le CorredorCorredor a un relief plus doux, avec des formes arrondies par l'érosion, qui ont favorisé l'activité agricole jusque dans les zones centrales. 
@@ -698,7 +720,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'homme est établi depuis la Préhistoire dans ces monts. L'exceptionnelle situation géographique et la richesse des ressources naturelles étaient déjà appréciés à l'époque néolithique, comme le démontrent les dolmens de Pedra Gentil (ca) et le de Pedra Arca. 
 Les peuples ibères, notamment les laietans, se sont installés, suivant leurs habitudes, dans les premières hauteurs, comme Turó del Vent (ca) et le Puig del Castell (ca), où l'on retrouve les restes de leur présence. L'occupation romaine va les forcer à descendre vers les plaines où apparaissent de nombreuses villas agricoles. 
